--- a/ListaAlumnosDia/FUNDAMENTOS DE PROGRAMACION26122021.xlsx
+++ b/ListaAlumnosDia/FUNDAMENTOS DE PROGRAMACION26122021.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Refb898ded9154aec"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R6e54e64b72e84264"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>ASISTENCIA</x:t>
   </x:si>
@@ -26,6 +26,9 @@
     <x:t>OBSERVACION</x:t>
   </x:si>
   <x:si>
+    <x:t>True</x:t>
+  </x:si>
+  <x:si>
     <x:t>192664</x:t>
   </x:si>
   <x:si>
@@ -38,6 +41,9 @@
     <x:t>BACILIO-HUAMAN-JEAN MARCO</x:t>
   </x:si>
   <x:si>
+    <x:t>TARDE</x:t>
+  </x:si>
+  <x:si>
     <x:t>193027</x:t>
   </x:si>
   <x:si>
@@ -62,10 +68,16 @@
     <x:t>FIGUEROA-RODRIGUEZ-ASTRID</x:t>
   </x:si>
   <x:si>
+    <x:t>F</x:t>
+  </x:si>
+  <x:si>
     <x:t>194918</x:t>
   </x:si>
   <x:si>
     <x:t>GAMARRA-FLORES-DAYHANA LUCERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIN INTERNET</x:t>
   </x:si>
   <x:si>
     <x:t>194919</x:t>
@@ -504,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:D26"/>
+  <x:dimension ref="A1:D27"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -525,203 +537,292 @@
       </x:c>
     </x:row>
     <x:row r="2">
+      <x:c r="A2" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
+      <x:c r="A3" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B3" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
+      <x:c r="A4" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B4" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
-      <x:c r="B5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
     <x:row r="6">
+      <x:c r="A6" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B6" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
+      <x:c r="A7" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B7" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
+      <x:c r="A8" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="B8" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
+      <x:c r="A9" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B9" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
+      <x:c r="A10" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B10" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
+      <x:c r="A11" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B11" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
+      <x:c r="A12" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B12" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
+      <x:c r="A13" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B13" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
+      <x:c r="A14" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B14" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
+      <x:c r="A15" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B15" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B16" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
+      <x:c r="A17" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B17" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
+      <x:c r="A18" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B18" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B19" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B20" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B21" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
+      <x:c r="A22" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B22" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
+      <x:c r="A23" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B23" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
+      <x:c r="A24" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B24" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C24" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
+      <x:c r="A25" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B25" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
+      <x:c r="A26" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B26" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C26" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
